--- a/数据整理/stocks/港股/02155-森松国际.xlsx
+++ b/数据整理/stocks/港股/02155-森松国际.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7443</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02155-森松国际.xlsx
+++ b/数据整理/stocks/港股/02155-森松国际.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -830,7 +831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,17 +842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -861,14 +882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.77</v>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -877,13 +920,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02155-森松国际.xlsx
+++ b/数据整理/stocks/港股/02155-森松国际.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,6 +453,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -504,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007455</t>
+          <t>010583</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
+          <t>富国蓝筹精选股票（QDII）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.40</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.48</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8585</t>
+          <t>0.6756</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010583</t>
+          <t>007455</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）美元</t>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.50</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.48</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7943</t>
+          <t>0.6756</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -580,36 +664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100055</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国全球科技互联网股票(QDII)</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.64</t>
+          <t>87.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1460</t>
+          <t>0.1715</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,7 +909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -882,36 +966,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010583</t>
+          <t>007455</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）美元</t>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>25.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>83.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6756</t>
+          <t>0.8585</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -920,36 +1004,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007455</t>
+          <t>010583</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
+          <t>富国蓝筹精选股票（QDII）美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>83.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6756</t>
+          <t>0.7943</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -958,120 +1042,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>100055</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>富国全球科技互联网股票(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>80.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1715</t>
+          <t>0.1460</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02155-森松国际.xlsx
+++ b/数据整理/stocks/港股/02155-森松国际.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.52</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.77</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -532,6 +549,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7654</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7654</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6564</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -701,7 +1078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -909,7 +1286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02155-森松国际.xlsx
+++ b/数据整理/stocks/港股/02155-森松国际.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.98</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.77</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007455</t>
+          <t>010583</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
+          <t>富国蓝筹精选股票（QDII）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.62</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7654</t>
+          <t>0.8215</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010583</t>
+          <t>007455</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）美元</t>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.62</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7654</t>
+          <t>0.8215</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -691,26 +708,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.83</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.45</t>
+          <t>87.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6564</t>
+          <t>0.6224</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -729,26 +746,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.83</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.45</t>
+          <t>87.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6564</t>
+          <t>0.6224</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -767,26 +784,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>70.56</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4004</t>
+          <t>0.5237</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -805,26 +822,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>12.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>70.56</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4004</t>
+          <t>0.5229</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -843,22 +860,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.97</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1987</t>
+          <t>0.2135</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -871,36 +888,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>016988</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票（QDII）</t>
+          <t>景顺长城大中华混合（QDII）人民币C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.80</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1322</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -909,6 +926,366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7654</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7654</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6564</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1078,7 +1455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1286,7 +1663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
